--- a/TP 1/Archivos/Graficos con delta T y derivada T.xlsx
+++ b/TP 1/Archivos/Graficos con delta T y derivada T.xlsx
@@ -13,7 +13,7 @@
   </sheets>
   <definedNames>
     <definedName name="erroresMatrices" localSheetId="0">Hoja1!$C$4:$J$5</definedName>
-    <definedName name="promediosMatrices" localSheetId="0">Hoja1!#REF!</definedName>
+    <definedName name="promediosMatrices" localSheetId="0">Hoja1!$L$10:$S$11</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
@@ -49,11 +49,25 @@
       </textFields>
     </textPr>
   </connection>
+  <connection id="3" name="promediosMatrices1" type="6" refreshedVersion="3" deleted="1" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="C:\Documents and Settings\Diego Montoya\Escritorio\Apuntes FIUBA\Numérico 75.12\TP Numérico\TP 1\Archivos\promediosMatrices.csv" thousands=" " tab="0" comma="1">
+      <textFields count="8">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="5">
   <si>
     <t>Valor representativo (V)</t>
   </si>
@@ -326,7 +340,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -349,6 +363,21 @@
     <xf numFmtId="1" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -385,8 +414,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.31690303214860571"/>
-                  <c:y val="-3.6205316855078155E-2"/>
+                  <c:x val="0.31690303214860577"/>
+                  <c:y val="-3.6205316855078162E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="#,##0.00000" sourceLinked="0"/>
@@ -459,11 +488,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="54843648"/>
-        <c:axId val="54842112"/>
+        <c:axId val="66952192"/>
+        <c:axId val="66974848"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="54843648"/>
+        <c:axId val="66952192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -488,12 +517,12 @@
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="54842112"/>
+        <c:crossAx val="66974848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="54842112"/>
+        <c:axId val="66974848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -519,7 +548,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="54843648"/>
+        <c:crossAx val="66952192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -532,7 +561,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -565,8 +594,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.31096149282709523"/>
-                  <c:y val="0.13323958358416207"/>
+                  <c:x val="0.31096149282709534"/>
+                  <c:y val="0.13323958358416213"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="#,##0.00000" sourceLinked="0"/>
@@ -639,11 +668,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="104013184"/>
-        <c:axId val="104011648"/>
+        <c:axId val="67253760"/>
+        <c:axId val="67255680"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="104013184"/>
+        <c:axId val="67253760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -675,12 +704,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104011648"/>
+        <c:crossAx val="67255680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="104011648"/>
+        <c:axId val="67255680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -711,7 +740,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104013184"/>
+        <c:crossAx val="67253760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -724,7 +753,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -757,8 +786,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.37532933383327083"/>
-                  <c:y val="8.5764332090067688E-2"/>
+                  <c:x val="0.37532933383327094"/>
+                  <c:y val="8.576433209006773E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="#,##0.00000" sourceLinked="0"/>
@@ -831,11 +860,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="100626432"/>
-        <c:axId val="103806464"/>
+        <c:axId val="67297280"/>
+        <c:axId val="67299200"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="100626432"/>
+        <c:axId val="67297280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -860,12 +889,12 @@
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103806464"/>
+        <c:crossAx val="67299200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="103806464"/>
+        <c:axId val="67299200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -891,7 +920,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100626432"/>
+        <c:crossAx val="67297280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -904,7 +933,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -915,13 +944,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:colOff>828675</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>771525</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>781050</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>19049</xdr:rowOff>
     </xdr:to>
@@ -944,16 +973,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>752475</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>771525</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>781050</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>57149</xdr:rowOff>
+      <xdr:rowOff>104774</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -974,16 +1003,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>781050</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>819149</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>781050</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>781049</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1006,6 +1035,10 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="promediosMatrices" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="erroresMatrices" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
@@ -1294,20 +1327,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:J6"/>
+  <dimension ref="B1:N54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" activeCellId="1" sqref="C3:J3 C5:J5"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="M59" sqref="M59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="18" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="11" width="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="7" customWidth="1"/>
+    <col min="18" max="18" width="6" customWidth="1"/>
+    <col min="19" max="19" width="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="15.75" thickBot="1"/>
-    <row r="2" spans="2:10">
+    <row r="1" spans="2:14" ht="15.75" thickBot="1"/>
+    <row r="2" spans="2:14">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1336,7 +1375,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:14">
       <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
@@ -1365,7 +1404,7 @@
         <v>152.78</v>
       </c>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:14">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1394,44 +1433,44 @@
         <v>23.742000000000001</v>
       </c>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:14">
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="7">
-        <f>490.05*0.2*(C2^(-0.8))*C4</f>
+        <f>C6*C4</f>
         <v>2.5058854871800382</v>
       </c>
       <c r="D5" s="7">
-        <f>490.05*0.2*(D2^(-0.8))*D4</f>
+        <f t="shared" ref="D5:J5" si="0">D6*D4</f>
         <v>2.270492788314479</v>
       </c>
       <c r="E5" s="7">
-        <f>490.05*0.2*(E2^(-0.8))*E4</f>
+        <f t="shared" si="0"/>
         <v>3.1693143457352897</v>
       </c>
       <c r="F5" s="7">
-        <f>490.05*0.2*(F2^(-0.8))*F4</f>
+        <f t="shared" si="0"/>
         <v>4.4277792318206766</v>
       </c>
       <c r="G5" s="7">
-        <f>490.05*0.2*(G2^(-0.8))*G4</f>
+        <f t="shared" si="0"/>
         <v>4.8938091444238427</v>
       </c>
       <c r="H5" s="7">
-        <f>490.05*0.2*(H2^(-0.8))*H4</f>
+        <f t="shared" si="0"/>
         <v>5.036055473409216</v>
       </c>
       <c r="I5" s="7">
-        <f>490.05*0.2*(I2^(-0.8))*I4</f>
+        <f t="shared" si="0"/>
         <v>5.4025192012926455</v>
       </c>
-      <c r="J5" s="8">
-        <f>490.05*0.2*(J2^(-0.8))*J4</f>
+      <c r="J5" s="7">
+        <f t="shared" si="0"/>
         <v>7.2736006451662654</v>
       </c>
     </row>
-    <row r="6" spans="2:10" ht="15.75" thickBot="1">
+    <row r="6" spans="2:14" ht="15.75" thickBot="1">
       <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
@@ -1440,32 +1479,302 @@
         <v>0.41819122979540702</v>
       </c>
       <c r="D6" s="9">
-        <f t="shared" ref="D6:J6" si="0">490.05*0.2*(D2^(-0.8))</f>
+        <f t="shared" ref="D6:J6" si="1">490.05*0.2*(D2^(-0.8))</f>
         <v>0.39751611399661729</v>
       </c>
       <c r="E6" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.37871499960988569</v>
       </c>
       <c r="F6" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.36153990624811599</v>
       </c>
       <c r="G6" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.34602341401568565</v>
       </c>
       <c r="H6" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.33171225618556288</v>
       </c>
       <c r="I6" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.3184696534598353</v>
       </c>
       <c r="J6" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.3063600642391654</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" ht="15.75" thickBot="1"/>
+    <row r="9" spans="2:14">
+      <c r="L9" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="M9" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="N9" s="18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14">
+      <c r="L10" s="13">
+        <v>25</v>
+      </c>
+      <c r="M10" s="12">
+        <v>917</v>
+      </c>
+      <c r="N10" s="8">
+        <f>490.05*0.2*(C2^(-0.8))</f>
+        <v>0.41819122979540702</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14">
+      <c r="L11" s="13">
+        <v>30</v>
+      </c>
+      <c r="M11" s="12">
+        <v>977</v>
+      </c>
+      <c r="N11" s="8">
+        <f>490.05*0.2*(D2^(-0.8))</f>
+        <v>0.39751611399661729</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14">
+      <c r="L12" s="13">
+        <v>39</v>
+      </c>
+      <c r="M12" s="12">
+        <v>1038</v>
+      </c>
+      <c r="N12" s="8">
+        <f>490.05*0.2*(E2^(-0.8))</f>
+        <v>0.37871499960988569</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14">
+      <c r="L13" s="13">
+        <v>55</v>
+      </c>
+      <c r="M13" s="12">
+        <v>1100</v>
+      </c>
+      <c r="N13" s="8">
+        <f>490.05*0.2*(F2^(-0.8))</f>
+        <v>0.36153990624811599</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14">
+      <c r="L14" s="13">
+        <v>80</v>
+      </c>
+      <c r="M14" s="12">
+        <v>1162</v>
+      </c>
+      <c r="N14" s="8">
+        <f>490.05*0.2*(G2^(-0.8))</f>
+        <v>0.34602341401568565</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14">
+      <c r="L15" s="13">
+        <v>102</v>
+      </c>
+      <c r="M15" s="12">
+        <v>1225</v>
+      </c>
+      <c r="N15" s="8">
+        <f>490.05*0.2*(H2^(-0.8))</f>
+        <v>0.33171225618556288</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14">
+      <c r="L16" s="13">
+        <v>128</v>
+      </c>
+      <c r="M16" s="12">
+        <v>1289</v>
+      </c>
+      <c r="N16" s="8">
+        <f>490.05*0.2*(I2^(-0.8))</f>
+        <v>0.3184696534598353</v>
+      </c>
+    </row>
+    <row r="17" spans="12:14" ht="15.75" thickBot="1">
+      <c r="L17" s="14">
+        <v>153</v>
+      </c>
+      <c r="M17" s="15">
+        <v>1353</v>
+      </c>
+      <c r="N17" s="10">
+        <f>490.05*0.2*(J2^(-0.8))</f>
+        <v>0.3063600642391654</v>
+      </c>
+    </row>
+    <row r="28" spans="12:14" ht="15.75" thickBot="1"/>
+    <row r="29" spans="12:14">
+      <c r="L29" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="M29" s="18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="12:14">
+      <c r="L30" s="13">
+        <v>917</v>
+      </c>
+      <c r="M30" s="19">
+        <f>C6*C4</f>
+        <v>2.5058854871800382</v>
+      </c>
+    </row>
+    <row r="31" spans="12:14">
+      <c r="L31" s="13">
+        <v>977</v>
+      </c>
+      <c r="M31" s="19">
+        <f>D6*D4</f>
+        <v>2.270492788314479</v>
+      </c>
+    </row>
+    <row r="32" spans="12:14">
+      <c r="L32" s="13">
+        <v>1038</v>
+      </c>
+      <c r="M32" s="19">
+        <f>E6*E4</f>
+        <v>3.1693143457352897</v>
+      </c>
+    </row>
+    <row r="33" spans="12:13">
+      <c r="L33" s="13">
+        <v>1100</v>
+      </c>
+      <c r="M33" s="19">
+        <f>F6*F4</f>
+        <v>4.4277792318206766</v>
+      </c>
+    </row>
+    <row r="34" spans="12:13">
+      <c r="L34" s="13">
+        <v>1162</v>
+      </c>
+      <c r="M34" s="19">
+        <f>G6*G4</f>
+        <v>4.8938091444238427</v>
+      </c>
+    </row>
+    <row r="35" spans="12:13">
+      <c r="L35" s="13">
+        <v>1225</v>
+      </c>
+      <c r="M35" s="19">
+        <f>H6*H4</f>
+        <v>5.036055473409216</v>
+      </c>
+    </row>
+    <row r="36" spans="12:13">
+      <c r="L36" s="13">
+        <v>1289</v>
+      </c>
+      <c r="M36" s="19">
+        <f>I6*H4</f>
+        <v>4.8350062788272199</v>
+      </c>
+    </row>
+    <row r="37" spans="12:13" ht="15.75" thickBot="1">
+      <c r="L37" s="14">
+        <v>1353</v>
+      </c>
+      <c r="M37" s="20">
+        <f>I6*I4</f>
+        <v>5.4025192012926455</v>
+      </c>
+    </row>
+    <row r="45" spans="12:13" ht="15.75" thickBot="1"/>
+    <row r="46" spans="12:13">
+      <c r="L46" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="M46" s="18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="12:13">
+      <c r="L47" s="13">
+        <v>25</v>
+      </c>
+      <c r="M47" s="19">
+        <f>C6*C4</f>
+        <v>2.5058854871800382</v>
+      </c>
+    </row>
+    <row r="48" spans="12:13">
+      <c r="L48" s="13">
+        <v>30</v>
+      </c>
+      <c r="M48" s="19">
+        <f>D6*D4</f>
+        <v>2.270492788314479</v>
+      </c>
+    </row>
+    <row r="49" spans="12:13">
+      <c r="L49" s="13">
+        <v>39</v>
+      </c>
+      <c r="M49" s="19">
+        <f>E6*E4</f>
+        <v>3.1693143457352897</v>
+      </c>
+    </row>
+    <row r="50" spans="12:13">
+      <c r="L50" s="13">
+        <v>55</v>
+      </c>
+      <c r="M50" s="19">
+        <f>F6*F4</f>
+        <v>4.4277792318206766</v>
+      </c>
+    </row>
+    <row r="51" spans="12:13">
+      <c r="L51" s="13">
+        <v>80</v>
+      </c>
+      <c r="M51" s="19">
+        <f>G6*G4</f>
+        <v>4.8938091444238427</v>
+      </c>
+    </row>
+    <row r="52" spans="12:13">
+      <c r="L52" s="13">
+        <v>102</v>
+      </c>
+      <c r="M52" s="19">
+        <f>H6*H4</f>
+        <v>5.036055473409216</v>
+      </c>
+    </row>
+    <row r="53" spans="12:13">
+      <c r="L53" s="13">
+        <v>128</v>
+      </c>
+      <c r="M53" s="19">
+        <f>I6*H4</f>
+        <v>4.8350062788272199</v>
+      </c>
+    </row>
+    <row r="54" spans="12:13" ht="15.75" thickBot="1">
+      <c r="L54" s="14">
+        <v>153</v>
+      </c>
+      <c r="M54" s="20">
+        <f>I6*I4</f>
+        <v>5.4025192012926455</v>
       </c>
     </row>
   </sheetData>

--- a/TP 1/Archivos/Graficos con delta T y derivada T.xlsx
+++ b/TP 1/Archivos/Graficos con delta T y derivada T.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="28380" windowHeight="12705"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
     <definedName name="erroresMatrices" localSheetId="0">Hoja1!$C$4:$J$5</definedName>
     <definedName name="promediosMatrices" localSheetId="0">Hoja1!$L$10:$S$11</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -123,8 +123,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -384,18 +384,34 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="es-ES"/>
+  <c:date1904 val="0"/>
+  <c:lang val="es-AR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -487,15 +503,25 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="66952192"/>
-        <c:axId val="66974848"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="92265088"/>
+        <c:axId val="92267264"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="66952192"/>
+        <c:axId val="92265088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -514,18 +540,22 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66974848"/>
+        <c:crossAx val="92267264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="66974848"/>
+        <c:axId val="92267264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -545,10 +575,13 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66952192"/>
+        <c:crossAx val="92265088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -556,8 +589,11 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -569,13 +605,24 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="es-ES"/>
+  <c:date1904 val="0"/>
+  <c:lang val="es-AR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -667,15 +714,26 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="67253760"/>
-        <c:axId val="67255680"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="92907008"/>
+        <c:axId val="92908928"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="67253760"/>
+        <c:axId val="92907008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="800"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -701,18 +759,22 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67255680"/>
+        <c:crossAx val="92908928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="67255680"/>
+        <c:axId val="92908928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -737,10 +799,13 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67253760"/>
+        <c:crossAx val="92907008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -748,8 +813,11 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -761,13 +829,24 @@
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="es-ES"/>
+  <c:date1904 val="0"/>
+  <c:lang val="es-AR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -859,15 +938,25 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="67297280"/>
-        <c:axId val="67299200"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="95560064"/>
+        <c:axId val="95561984"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="67297280"/>
+        <c:axId val="95560064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -886,18 +975,22 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67299200"/>
+        <c:crossAx val="95561984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="67299200"/>
+        <c:axId val="95561984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -917,10 +1010,13 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67297280"/>
+        <c:crossAx val="95560064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -928,8 +1024,11 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -1035,11 +1134,11 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="promediosMatrices" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="erroresMatrices" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="erroresMatrices" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="promediosMatrices" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1117,6 +1216,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1151,6 +1251,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1326,14 +1427,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="M59" sqref="M59"/>
+    <sheetView tabSelected="1" topLeftCell="B28" workbookViewId="0">
+      <selection activeCell="L42" sqref="L42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="11" width="12" bestFit="1" customWidth="1"/>
@@ -1345,8 +1446,8 @@
     <col min="19" max="19" width="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="15.75" thickBot="1"/>
-    <row r="2" spans="2:14">
+    <row r="1" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1375,7 +1476,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="3" spans="2:14">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
@@ -1404,7 +1505,7 @@
         <v>152.78</v>
       </c>
     </row>
-    <row r="4" spans="2:14">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1433,7 +1534,7 @@
         <v>23.742000000000001</v>
       </c>
     </row>
-    <row r="5" spans="2:14">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1470,7 +1571,7 @@
         <v>7.2736006451662654</v>
       </c>
     </row>
-    <row r="6" spans="2:14" ht="15.75" thickBot="1">
+    <row r="6" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
@@ -1507,8 +1608,8 @@
         <v>0.3063600642391654</v>
       </c>
     </row>
-    <row r="8" spans="2:14" ht="15.75" thickBot="1"/>
-    <row r="9" spans="2:14">
+    <row r="8" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="L9" s="16" t="s">
         <v>0</v>
       </c>
@@ -1519,7 +1620,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="2:14">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="L10" s="13">
         <v>25</v>
       </c>
@@ -1531,7 +1632,7 @@
         <v>0.41819122979540702</v>
       </c>
     </row>
-    <row r="11" spans="2:14">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="L11" s="13">
         <v>30</v>
       </c>
@@ -1543,7 +1644,7 @@
         <v>0.39751611399661729</v>
       </c>
     </row>
-    <row r="12" spans="2:14">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="L12" s="13">
         <v>39</v>
       </c>
@@ -1555,7 +1656,7 @@
         <v>0.37871499960988569</v>
       </c>
     </row>
-    <row r="13" spans="2:14">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="L13" s="13">
         <v>55</v>
       </c>
@@ -1567,7 +1668,7 @@
         <v>0.36153990624811599</v>
       </c>
     </row>
-    <row r="14" spans="2:14">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="L14" s="13">
         <v>80</v>
       </c>
@@ -1579,7 +1680,7 @@
         <v>0.34602341401568565</v>
       </c>
     </row>
-    <row r="15" spans="2:14">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="L15" s="13">
         <v>102</v>
       </c>
@@ -1591,7 +1692,7 @@
         <v>0.33171225618556288</v>
       </c>
     </row>
-    <row r="16" spans="2:14">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="L16" s="13">
         <v>128</v>
       </c>
@@ -1603,7 +1704,7 @@
         <v>0.3184696534598353</v>
       </c>
     </row>
-    <row r="17" spans="12:14" ht="15.75" thickBot="1">
+    <row r="17" spans="12:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L17" s="14">
         <v>153</v>
       </c>
@@ -1615,8 +1716,8 @@
         <v>0.3063600642391654</v>
       </c>
     </row>
-    <row r="28" spans="12:14" ht="15.75" thickBot="1"/>
-    <row r="29" spans="12:14">
+    <row r="28" spans="12:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L29" s="16" t="s">
         <v>1</v>
       </c>
@@ -1624,7 +1725,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="12:14">
+    <row r="30" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L30" s="13">
         <v>917</v>
       </c>
@@ -1633,7 +1734,7 @@
         <v>2.5058854871800382</v>
       </c>
     </row>
-    <row r="31" spans="12:14">
+    <row r="31" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L31" s="13">
         <v>977</v>
       </c>
@@ -1642,7 +1743,7 @@
         <v>2.270492788314479</v>
       </c>
     </row>
-    <row r="32" spans="12:14">
+    <row r="32" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L32" s="13">
         <v>1038</v>
       </c>
@@ -1651,7 +1752,7 @@
         <v>3.1693143457352897</v>
       </c>
     </row>
-    <row r="33" spans="12:13">
+    <row r="33" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L33" s="13">
         <v>1100</v>
       </c>
@@ -1660,7 +1761,7 @@
         <v>4.4277792318206766</v>
       </c>
     </row>
-    <row r="34" spans="12:13">
+    <row r="34" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L34" s="13">
         <v>1162</v>
       </c>
@@ -1669,7 +1770,7 @@
         <v>4.8938091444238427</v>
       </c>
     </row>
-    <row r="35" spans="12:13">
+    <row r="35" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L35" s="13">
         <v>1225</v>
       </c>
@@ -1678,7 +1779,7 @@
         <v>5.036055473409216</v>
       </c>
     </row>
-    <row r="36" spans="12:13">
+    <row r="36" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L36" s="13">
         <v>1289</v>
       </c>
@@ -1687,7 +1788,7 @@
         <v>4.8350062788272199</v>
       </c>
     </row>
-    <row r="37" spans="12:13" ht="15.75" thickBot="1">
+    <row r="37" spans="12:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L37" s="14">
         <v>1353</v>
       </c>
@@ -1696,8 +1797,8 @@
         <v>5.4025192012926455</v>
       </c>
     </row>
-    <row r="45" spans="12:13" ht="15.75" thickBot="1"/>
-    <row r="46" spans="12:13">
+    <row r="45" spans="12:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="46" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L46" s="16" t="s">
         <v>0</v>
       </c>
@@ -1705,7 +1806,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="12:13">
+    <row r="47" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L47" s="13">
         <v>25</v>
       </c>
@@ -1714,7 +1815,7 @@
         <v>2.5058854871800382</v>
       </c>
     </row>
-    <row r="48" spans="12:13">
+    <row r="48" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L48" s="13">
         <v>30</v>
       </c>
@@ -1723,7 +1824,7 @@
         <v>2.270492788314479</v>
       </c>
     </row>
-    <row r="49" spans="12:13">
+    <row r="49" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L49" s="13">
         <v>39</v>
       </c>
@@ -1732,7 +1833,7 @@
         <v>3.1693143457352897</v>
       </c>
     </row>
-    <row r="50" spans="12:13">
+    <row r="50" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L50" s="13">
         <v>55</v>
       </c>
@@ -1741,7 +1842,7 @@
         <v>4.4277792318206766</v>
       </c>
     </row>
-    <row r="51" spans="12:13">
+    <row r="51" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L51" s="13">
         <v>80</v>
       </c>
@@ -1750,7 +1851,7 @@
         <v>4.8938091444238427</v>
       </c>
     </row>
-    <row r="52" spans="12:13">
+    <row r="52" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L52" s="13">
         <v>102</v>
       </c>
@@ -1759,7 +1860,7 @@
         <v>5.036055473409216</v>
       </c>
     </row>
-    <row r="53" spans="12:13">
+    <row r="53" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L53" s="13">
         <v>128</v>
       </c>
@@ -1768,7 +1869,7 @@
         <v>4.8350062788272199</v>
       </c>
     </row>
-    <row r="54" spans="12:13" ht="15.75" thickBot="1">
+    <row r="54" spans="12:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L54" s="14">
         <v>153</v>
       </c>
@@ -1785,24 +1886,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
